--- a/library/seat_template.xlsx
+++ b/library/seat_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7cf3a2fcbf616214/文档/Work/seat/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{EA047AC3-0F2F-417C-B338-0D97FD44DA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EC1395A-741B-406C-A6DC-3D466C2F8A35}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{EA047AC3-0F2F-417C-B338-0D97FD44DA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7373338E-BDEA-4784-B132-687D2FDFB490}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1770" windowWidth="18900" windowHeight="11860" xr2:uid="{34280183-CD2B-44EA-BC63-415E754AED01}"/>
+    <workbookView xWindow="1680" yWindow="2110" windowWidth="18900" windowHeight="11860" xr2:uid="{34280183-CD2B-44EA-BC63-415E754AED01}"/>
   </bookViews>
   <sheets>
     <sheet name="Seats" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>窗户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>ICC S1C5 座位表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$%ROW% %COL%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -539,20 +543,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,7 +875,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="K1" sqref="K1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -894,7 +898,7 @@
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
       <c r="K1" s="28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L1" s="28"/>
       <c r="M1" s="29"/>
@@ -914,7 +918,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="41" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="9"/>
@@ -934,7 +938,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="40"/>
+      <c r="L3" s="42"/>
       <c r="M3" s="10"/>
       <c r="N3" s="3"/>
     </row>
@@ -942,7 +946,9 @@
       <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="25"/>
       <c r="D4" s="30" t="s">
         <v>5</v>
@@ -975,7 +981,7 @@
       <c r="J5" s="30"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="38" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="3"/>
@@ -993,23 +999,23 @@
       <c r="J6" s="30"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="41"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33"/>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="38"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="21"/>
       <c r="F7" s="19"/>
       <c r="G7" s="15"/>
       <c r="H7" s="22"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="38"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="24"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="42"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>

--- a/library/seat_template.xlsx
+++ b/library/seat_template.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7620" yWindow="2300" windowWidth="16080" windowHeight="11860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Seats" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -32,18 +32,339 @@
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="黑体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="黑体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="黑体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <color theme="1"/>
+      <sz val="14"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="25">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -55,10 +376,146 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,22 +893,198 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <cols>
+    <col width="9.75" customWidth="1" style="3" min="1" max="13"/>
+    <col width="8.6640625" customWidth="1" style="3" min="14" max="16384"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+    <row r="1" ht="36.5" customHeight="1" s="43" thickBot="1" thickTop="1">
+      <c r="A1" s="26" t="inlineStr">
+        <is>
+          <t>ICC S1C5 座位表</t>
+        </is>
+      </c>
+      <c r="B1" s="44" t="n"/>
+      <c r="C1" s="44" t="n"/>
+      <c r="D1" s="44" t="n"/>
+      <c r="E1" s="44" t="n"/>
+      <c r="F1" s="44" t="n"/>
+      <c r="G1" s="44" t="n"/>
+      <c r="H1" s="44" t="n"/>
+      <c r="I1" s="44" t="n"/>
+      <c r="J1" s="44" t="n"/>
+      <c r="K1" s="29" t="inlineStr">
+        <is>
+          <t>DAY MONTH, YEAR</t>
+        </is>
+      </c>
+      <c r="L1" s="44" t="n"/>
+      <c r="M1" s="45" t="n"/>
+      <c r="N1" s="8" t="n"/>
+    </row>
+    <row r="2" ht="29" customHeight="1" s="43" thickBot="1" thickTop="1">
+      <c r="A2" s="9" t="n"/>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="34" t="inlineStr">
+        <is>
+          <t>白板</t>
+        </is>
+      </c>
+      <c r="K2" s="6" t="n"/>
+      <c r="L2" s="41" t="inlineStr">
+        <is>
+          <t>门</t>
+        </is>
+      </c>
+      <c r="M2" s="9" t="n"/>
+      <c r="N2" s="8" t="n"/>
+    </row>
+    <row r="3" ht="29" customHeight="1" s="43" thickBot="1" thickTop="1">
+      <c r="A3" s="9" t="n"/>
+      <c r="B3" s="11" t="n"/>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>讲台</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="13" t="n"/>
+      <c r="F3" s="13" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="13" t="n"/>
+      <c r="I3" s="13" t="n"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="M3" s="10" t="n"/>
+      <c r="N3" s="3" t="n"/>
+    </row>
+    <row r="4" ht="29" customHeight="1" s="43" thickTop="1">
+      <c r="A4" s="33" t="inlineStr">
+        <is>
+          <t>窗户</t>
+        </is>
+      </c>
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>$ %ROW% %COL%</t>
         </is>
       </c>
+      <c r="C4" s="35" t="n"/>
+      <c r="D4" s="40" t="inlineStr">
+        <is>
+          <t>过道</t>
+        </is>
+      </c>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="35" t="n"/>
+      <c r="G4" s="31" t="inlineStr">
+        <is>
+          <t>过道</t>
+        </is>
+      </c>
+      <c r="H4" s="16" t="n"/>
+      <c r="I4" s="17" t="n"/>
+      <c r="J4" s="40" t="inlineStr">
+        <is>
+          <t>过道</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="37" t="n"/>
+      <c r="M4" s="46" t="n"/>
+      <c r="N4" s="3" t="n"/>
+    </row>
+    <row r="5" ht="29" customHeight="1" s="43">
+      <c r="A5" s="47" t="n"/>
+      <c r="B5" s="14" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="D5" s="48" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="23" t="n"/>
+      <c r="G5" s="48" t="n"/>
+      <c r="H5" s="16" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="48" t="n"/>
+      <c r="K5" s="16" t="n"/>
+      <c r="L5" s="16" t="n"/>
+      <c r="M5" s="39" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="29" customHeight="1" s="43">
+      <c r="A6" s="47" t="n"/>
+      <c r="B6" s="20" t="n"/>
+      <c r="C6" s="16" t="n"/>
+      <c r="D6" s="48" t="n"/>
+      <c r="E6" s="23" t="n"/>
+      <c r="F6" s="23" t="n"/>
+      <c r="G6" s="49" t="n"/>
+      <c r="H6" s="23" t="n"/>
+      <c r="I6" s="23" t="n"/>
+      <c r="J6" s="48" t="n"/>
+      <c r="K6" s="23" t="n"/>
+      <c r="L6" s="23" t="n"/>
+      <c r="M6" s="46" t="n"/>
+      <c r="N6" s="3" t="n"/>
+    </row>
+    <row r="7" ht="29" customHeight="1" s="43" thickBot="1">
+      <c r="A7" s="50" t="n"/>
+      <c r="B7" s="21" t="n"/>
+      <c r="C7" s="22" t="n"/>
+      <c r="D7" s="51" t="n"/>
+      <c r="E7" s="21" t="n"/>
+      <c r="F7" s="40" t="n"/>
+      <c r="G7" s="15" t="n"/>
+      <c r="H7" s="22" t="n"/>
+      <c r="I7" s="21" t="n"/>
+      <c r="J7" s="51" t="n"/>
+      <c r="K7" s="24" t="n"/>
+      <c r="L7" s="40" t="n"/>
+      <c r="M7" s="52" t="n"/>
+    </row>
+    <row r="8" ht="14.5" customHeight="1" s="43" thickTop="1">
+      <c r="A8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="L2:L3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>